--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.21340333333333</v>
+        <v>21.64449733333333</v>
       </c>
       <c r="H2">
-        <v>42.64021</v>
+        <v>64.933492</v>
       </c>
       <c r="I2">
-        <v>0.07497543485230342</v>
+        <v>0.1098676276771345</v>
       </c>
       <c r="J2">
-        <v>0.07497543485230343</v>
+        <v>0.1098676276771345</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.188906999999999</v>
+        <v>8.488196666666667</v>
       </c>
       <c r="N2">
-        <v>15.566721</v>
+        <v>25.46459</v>
       </c>
       <c r="O2">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="P2">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="Q2">
-        <v>73.75202805015665</v>
+        <v>183.7227501164756</v>
       </c>
       <c r="R2">
-        <v>663.7682524514098</v>
+        <v>1653.50475104828</v>
       </c>
       <c r="S2">
-        <v>0.001927768664325721</v>
+        <v>0.004546765173918835</v>
       </c>
       <c r="T2">
-        <v>0.001927768664325721</v>
+        <v>0.004546765173918836</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.21340333333333</v>
+        <v>21.64449733333333</v>
       </c>
       <c r="H3">
-        <v>42.64021</v>
+        <v>64.933492</v>
       </c>
       <c r="I3">
-        <v>0.07497543485230342</v>
+        <v>0.1098676276771345</v>
       </c>
       <c r="J3">
-        <v>0.07497543485230343</v>
+        <v>0.1098676276771345</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>202.900665</v>
       </c>
       <c r="O3">
-        <v>0.3351369029761694</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="P3">
-        <v>0.3351369029761695</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="Q3">
-        <v>961.3029960821833</v>
+        <v>1463.894300841353</v>
       </c>
       <c r="R3">
-        <v>8651.72696473965</v>
+        <v>13175.04870757218</v>
       </c>
       <c r="S3">
-        <v>0.02512703503569252</v>
+        <v>0.03622841276403714</v>
       </c>
       <c r="T3">
-        <v>0.02512703503569253</v>
+        <v>0.03622841276403714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.21340333333333</v>
+        <v>21.64449733333333</v>
       </c>
       <c r="H4">
-        <v>42.64021</v>
+        <v>64.933492</v>
       </c>
       <c r="I4">
-        <v>0.07497543485230342</v>
+        <v>0.1098676276771345</v>
       </c>
       <c r="J4">
-        <v>0.07497543485230343</v>
+        <v>0.1098676276771345</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>386.958824</v>
       </c>
       <c r="O4">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="P4">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="Q4">
-        <v>1833.333946301449</v>
+        <v>2791.843078059268</v>
       </c>
       <c r="R4">
-        <v>16500.00551671304</v>
+        <v>25126.58770253341</v>
       </c>
       <c r="S4">
-        <v>0.04792063115228517</v>
+        <v>0.06909244973917852</v>
       </c>
       <c r="T4">
-        <v>0.04792063115228518</v>
+        <v>0.06909244973917854</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>29.428335</v>
       </c>
       <c r="H5">
-        <v>88.28500500000001</v>
+        <v>88.285005</v>
       </c>
       <c r="I5">
-        <v>0.1552339127976336</v>
+        <v>0.1493784449296822</v>
       </c>
       <c r="J5">
-        <v>0.1552339127976336</v>
+        <v>0.1493784449296822</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.188906999999999</v>
+        <v>8.488196666666667</v>
       </c>
       <c r="N5">
-        <v>15.566721</v>
+        <v>25.46459</v>
       </c>
       <c r="O5">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="P5">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="Q5">
-        <v>152.700893479845</v>
+        <v>249.79349505255</v>
       </c>
       <c r="R5">
-        <v>1374.308041318605</v>
+        <v>2248.14145547295</v>
       </c>
       <c r="S5">
-        <v>0.003991374952628977</v>
+        <v>0.006181882011108386</v>
       </c>
       <c r="T5">
-        <v>0.003991374952628978</v>
+        <v>0.006181882011108386</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>29.428335</v>
       </c>
       <c r="H6">
-        <v>88.28500500000001</v>
+        <v>88.285005</v>
       </c>
       <c r="I6">
-        <v>0.1552339127976336</v>
+        <v>0.1493784449296822</v>
       </c>
       <c r="J6">
-        <v>0.1552339127976336</v>
+        <v>0.1493784449296822</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>202.900665</v>
       </c>
       <c r="O6">
-        <v>0.3351369029761694</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="P6">
-        <v>0.3351369029761695</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="Q6">
         <v>1990.342913780925</v>
       </c>
       <c r="R6">
-        <v>17913.08622402833</v>
+        <v>17913.08622402832</v>
       </c>
       <c r="S6">
-        <v>0.05202461277187167</v>
+        <v>0.0492569474319213</v>
       </c>
       <c r="T6">
-        <v>0.05202461277187169</v>
+        <v>0.04925694743192131</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>29.428335</v>
       </c>
       <c r="H7">
-        <v>88.28500500000001</v>
+        <v>88.285005</v>
       </c>
       <c r="I7">
-        <v>0.1552339127976336</v>
+        <v>0.1493784449296822</v>
       </c>
       <c r="J7">
-        <v>0.1552339127976336</v>
+        <v>0.1493784449296822</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>386.958824</v>
       </c>
       <c r="O7">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="P7">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="Q7">
-        <v>3795.851301292681</v>
+        <v>3795.85130129268</v>
       </c>
       <c r="R7">
         <v>34162.66171163412</v>
       </c>
       <c r="S7">
-        <v>0.09921792507313291</v>
+        <v>0.09393961548665249</v>
       </c>
       <c r="T7">
-        <v>0.09921792507313294</v>
+        <v>0.0939396154866525</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>437.797195</v>
       </c>
       <c r="I8">
-        <v>0.7697906523500631</v>
+        <v>0.7407539273931834</v>
       </c>
       <c r="J8">
-        <v>0.7697906523500631</v>
+        <v>0.7407539273931834</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.188906999999999</v>
+        <v>8.488196666666667</v>
       </c>
       <c r="N8">
-        <v>15.566721</v>
+        <v>25.46459</v>
       </c>
       <c r="O8">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="P8">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="Q8">
-        <v>757.2296432386216</v>
+        <v>1238.702897091672</v>
       </c>
       <c r="R8">
-        <v>6815.066789147594</v>
+        <v>11148.32607382505</v>
       </c>
       <c r="S8">
-        <v>0.01979286016299397</v>
+        <v>0.03065538257922974</v>
       </c>
       <c r="T8">
-        <v>0.01979286016299397</v>
+        <v>0.03065538257922974</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>437.797195</v>
       </c>
       <c r="I9">
-        <v>0.7697906523500631</v>
+        <v>0.7407539273931834</v>
       </c>
       <c r="J9">
-        <v>0.7697906523500631</v>
+        <v>0.7407539273931834</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>202.900665</v>
       </c>
       <c r="O9">
-        <v>0.3351369029761694</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="P9">
-        <v>0.3351369029761695</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="Q9">
         <v>9869.92688895941</v>
@@ -1004,10 +1004,10 @@
         <v>88829.34200063467</v>
       </c>
       <c r="S9">
-        <v>0.2579852551686053</v>
+        <v>0.2442606580806967</v>
       </c>
       <c r="T9">
-        <v>0.2579852551686053</v>
+        <v>0.2442606580806967</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>437.797195</v>
       </c>
       <c r="I10">
-        <v>0.7697906523500631</v>
+        <v>0.7407539273931834</v>
       </c>
       <c r="J10">
-        <v>0.7697906523500631</v>
+        <v>0.7407539273931834</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>386.958824</v>
       </c>
       <c r="O10">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="P10">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="Q10">
         <v>18823.27641418875</v>
@@ -1066,10 +1066,10 @@
         <v>169409.4877276987</v>
       </c>
       <c r="S10">
-        <v>0.4920125370184638</v>
+        <v>0.4658378867332569</v>
       </c>
       <c r="T10">
-        <v>0.4920125370184638</v>
+        <v>0.4658378867332569</v>
       </c>
     </row>
   </sheetData>
